--- a/simulations/cleaned_inclusion_exclusion/Brouwer_2019 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Brouwer_2019 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.887652830980742</v>
+        <v>0.8878364905284147</v>
       </c>
       <c r="I3">
-        <v>0.01107864280797415</v>
+        <v>0.007966602577796767</v>
       </c>
       <c r="J3">
         <v>0.9032258064516129</v>
       </c>
       <c r="K3">
-        <v>453.0645161290323</v>
+        <v>334.6451612903226</v>
       </c>
       <c r="L3">
         <v>6</v>
@@ -755,34 +755,34 @@
         <v>55</v>
       </c>
       <c r="Q3">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="R3">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="S3">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="T3">
-        <v>384</v>
+        <v>225</v>
       </c>
       <c r="U3">
-        <v>727</v>
+        <v>632</v>
       </c>
       <c r="V3">
-        <v>37918</v>
+        <v>38043</v>
       </c>
       <c r="W3">
-        <v>37906</v>
+        <v>38025</v>
       </c>
       <c r="X3">
-        <v>37848</v>
+        <v>37948</v>
       </c>
       <c r="Y3">
-        <v>37668</v>
+        <v>37827</v>
       </c>
       <c r="Z3">
-        <v>37325</v>
+        <v>37420</v>
       </c>
       <c r="AA3">
         <v>56</v>
@@ -800,19 +800,19 @@
         <v>7</v>
       </c>
       <c r="AF3">
-        <v>0.996479</v>
+        <v>0.999763</v>
       </c>
       <c r="AG3">
-        <v>0.996163</v>
+        <v>0.99929</v>
       </c>
       <c r="AH3">
-        <v>0.9946390000000001</v>
+        <v>0.997267</v>
       </c>
       <c r="AI3">
-        <v>0.989909</v>
+        <v>0.9940870000000001</v>
       </c>
       <c r="AJ3">
-        <v>0.980895</v>
+        <v>0.983391</v>
       </c>
     </row>
   </sheetData>
